--- a/Experiments/Part4-DoNothing/DocPop-leech.xlsx
+++ b/Experiments/Part4-DoNothing/DocPop-leech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3920" windowWidth="23920" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Setting1</t>
   </si>
@@ -27,10 +27,16 @@
     <t>Taste1(avg)</t>
   </si>
   <si>
-    <t>Taste0(avg)</t>
+    <t>Setting 2</t>
   </si>
   <si>
-    <t>Setting2</t>
+    <t>Taste 0 (avg)</t>
+  </si>
+  <si>
+    <t>Taste0-leech(avg)</t>
+  </si>
+  <si>
+    <t>Taste 1-leech (avg)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste0(avg)</c:v>
+                  <c:v>Setting1 Taste0-leech(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -671,20 +677,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122912088"/>
-        <c:axId val="2122781128"/>
+        <c:axId val="-2118876392"/>
+        <c:axId val="2100305912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122912088"/>
+        <c:axId val="-2118876392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122781128"/>
+        <c:crossAx val="2100305912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -692,18 +717,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122781128"/>
+        <c:axId val="2100305912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122912088"/>
+        <c:crossAx val="-2118876392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,7 +798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 Taste1(avg)</c:v>
+                  <c:v>Setting 2 Taste 1-leech (avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -764,246 +808,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$D$3:$D$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$3:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>4.4875</c:v>
+                  <c:v>-1.616666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.922916667</c:v>
+                  <c:v>-3.520833333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.38958333</c:v>
+                  <c:v>-5.174999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.92291667</c:v>
+                  <c:v>-7.291666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.22604167</c:v>
+                  <c:v>-9.045833333333316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.746875</c:v>
+                  <c:v>-11.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.30729167</c:v>
+                  <c:v>-13.01666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.86458333</c:v>
+                  <c:v>-15.03333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.325</c:v>
+                  <c:v>-16.87499999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.79479167</c:v>
+                  <c:v>-18.64999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.39583333</c:v>
+                  <c:v>-20.31666666666662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.77395833</c:v>
+                  <c:v>-22.19166666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.17083333</c:v>
+                  <c:v>-24.0208333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.740625</c:v>
+                  <c:v>-25.84166666666664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.99270833</c:v>
+                  <c:v>-27.80833333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.37916666</c:v>
+                  <c:v>-29.57916666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.95104167</c:v>
+                  <c:v>-31.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80.10833332999999</c:v>
+                  <c:v>-32.98749999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.59375</c:v>
+                  <c:v>-34.85833333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.890625</c:v>
+                  <c:v>-36.51666666666663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.34895834</c:v>
+                  <c:v>-37.99166666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.58020833</c:v>
+                  <c:v>-39.44166666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.8552083</c:v>
+                  <c:v>-41.04999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>106.2145833</c:v>
+                  <c:v>-42.19166666666663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.559375</c:v>
+                  <c:v>-43.49166666666663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114.8010417</c:v>
+                  <c:v>-44.6083333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>119.1947917</c:v>
+                  <c:v>-46.04999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>123.4322917</c:v>
+                  <c:v>-46.8833333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>127.6104167</c:v>
+                  <c:v>-47.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>132.021875</c:v>
+                  <c:v>-48.12083333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>136.1270833</c:v>
+                  <c:v>-48.71249999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>140.44375</c:v>
+                  <c:v>-49.46249999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>144.646875</c:v>
+                  <c:v>-49.77916666666664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>148.4791667</c:v>
+                  <c:v>-50.22499999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>152.2791667</c:v>
+                  <c:v>-50.5208333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>156.303125</c:v>
+                  <c:v>-50.63749999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>160.4885417</c:v>
+                  <c:v>-50.44999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>164.38125</c:v>
+                  <c:v>-49.79166666666663</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>168.25625</c:v>
+                  <c:v>-48.94166666666664</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>171.771875</c:v>
+                  <c:v>-47.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>174.834375</c:v>
+                  <c:v>-45.95416666666663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>177.3322917</c:v>
+                  <c:v>-44.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>179.33125</c:v>
+                  <c:v>-42.38333333333331</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>181.2041667</c:v>
+                  <c:v>-40.65416666666664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>182.303125</c:v>
+                  <c:v>-38.19583333333332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>183.05625</c:v>
+                  <c:v>-35.32916666666664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>183.384375</c:v>
+                  <c:v>-31.8208333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>183.575</c:v>
+                  <c:v>-27.48333333333331</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>183.6895833</c:v>
+                  <c:v>-23.05416666666664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>183.7833333</c:v>
+                  <c:v>-17.97083333333331</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>184.4895833</c:v>
+                  <c:v>-12.37083333333331</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>185.0302083</c:v>
+                  <c:v>-6.38333333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>185.4854167</c:v>
+                  <c:v>0.208333333333334</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>186.14375</c:v>
+                  <c:v>6.887499999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>186.6697917</c:v>
+                  <c:v>13.79166666666663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>187.3010417</c:v>
+                  <c:v>20.81666666666664</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187.8052083</c:v>
+                  <c:v>27.72083333333331</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>188.1979167</c:v>
+                  <c:v>35.05833333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>188.7239583</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>189.0989583</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>189.6145833</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>190.1822917</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>190.7135417</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>191.359375</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>191.71875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>192.296875</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>192.8802083</c:v>
+                  <c:v>102.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>193.390625</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>193.8958333</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>194.2864583</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>194.578125</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>195.171875</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>195.765625</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>196.515625</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>197.046875</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>197.59375</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>198.1770833</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>198.6822917</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>199.3385417</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1022,7 +1066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 Taste0(avg)</c:v>
+                  <c:v>Setting 2 Taste 0 (avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1032,246 +1076,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$E$3:$E$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$3:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>0.566666667</c:v>
+                  <c:v>6.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.541666667</c:v>
+                  <c:v>13.31666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.075</c:v>
+                  <c:v>19.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.925</c:v>
+                  <c:v>26.58333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5125</c:v>
+                  <c:v>33.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.879166666</c:v>
+                  <c:v>40.01666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.470833334</c:v>
+                  <c:v>46.59999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.325</c:v>
+                  <c:v>53.29999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.683333334</c:v>
+                  <c:v>59.41666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.704166666</c:v>
+                  <c:v>65.74999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.633333333</c:v>
+                  <c:v>72.11666666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.020833334</c:v>
+                  <c:v>78.66666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.533333333</c:v>
+                  <c:v>85.18333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.620833334</c:v>
+                  <c:v>91.64999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.979166666</c:v>
+                  <c:v>98.1499999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.716666667</c:v>
+                  <c:v>104.5666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.162499996</c:v>
+                  <c:v>110.8333333333329</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.683333333</c:v>
+                  <c:v>117.3333333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.524999997</c:v>
+                  <c:v>123.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.354166667</c:v>
+                  <c:v>130.0166666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.854166667</c:v>
+                  <c:v>136.5166666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.562499996</c:v>
+                  <c:v>142.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.17916667</c:v>
+                  <c:v>149.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.89166667</c:v>
+                  <c:v>155.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.3625</c:v>
+                  <c:v>161.1333333333329</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.22916667</c:v>
+                  <c:v>167.1333333333331</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.65416667</c:v>
+                  <c:v>173.1166666666663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.60416666</c:v>
+                  <c:v>178.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.375</c:v>
+                  <c:v>184.3499999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.94583333</c:v>
+                  <c:v>189.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.25833334</c:v>
+                  <c:v>195.2666666666663</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.925</c:v>
+                  <c:v>200.7333333333332</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.3125</c:v>
+                  <c:v>206.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.23333334</c:v>
+                  <c:v>211.8833333333332</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.23333333</c:v>
+                  <c:v>217.1499999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.7875</c:v>
+                  <c:v>222.3666666666663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.5625</c:v>
+                  <c:v>226.8166666666663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.15833333</c:v>
+                  <c:v>231.6499999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.94166667</c:v>
+                  <c:v>236.3499999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.4125</c:v>
+                  <c:v>240.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.8625</c:v>
+                  <c:v>243.8999999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.82083334</c:v>
+                  <c:v>247.6166666666663</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32.55833333</c:v>
+                  <c:v>250.9499999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.38333334</c:v>
+                  <c:v>254.9833333333331</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.22083333</c:v>
+                  <c:v>258.3166666666663</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44.75833333</c:v>
+                  <c:v>260.7499999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.74583334</c:v>
+                  <c:v>262.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.76666667</c:v>
+                  <c:v>264.0833333333331</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61.24166666</c:v>
+                  <c:v>265.0166666666663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>66.53333333</c:v>
+                  <c:v>265.4999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71.27500000000001</c:v>
+                  <c:v>265.3166666666664</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>76.3125</c:v>
+                  <c:v>264.8166666666665</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80.70833334</c:v>
+                  <c:v>263.5833333333332</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>86.74166667</c:v>
+                  <c:v>262.0833333333332</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.47083334</c:v>
+                  <c:v>260.4666666666665</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.5125</c:v>
+                  <c:v>258.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.0958333</c:v>
+                  <c:v>257.1333333333331</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>104.825</c:v>
+                  <c:v>254.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>109.2708333</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>113.3541667</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>117.875</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>122.6875</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>127.7291667</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>133.1458333</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>136.625</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>141.0625</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>145.3958333</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>149.6875</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>154.25</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>157.7708333</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>160.6041667</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>164.8958333</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>168.8541667</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>173.8541667</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>177.5625</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>182.4583333</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>186.9583333</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>191.5208333</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>196.7291667</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1291,20 +1335,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087724120"/>
-        <c:axId val="2087725528"/>
+        <c:axId val="2112375800"/>
+        <c:axId val="2110251128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087724120"/>
+        <c:axId val="2112375800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087725528"/>
+        <c:crossAx val="2110251128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,18 +1375,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087725528"/>
+        <c:axId val="2110251128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087724120"/>
+        <c:crossAx val="2112375800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,20 +1461,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1732,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1745,23 +1827,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1772,10 +1853,10 @@
         <v>-2.35</v>
       </c>
       <c r="D3" s="1">
-        <v>4.4874999999999998</v>
+        <v>-1.6166666666666647</v>
       </c>
       <c r="E3" s="1">
-        <v>0.56666666700000001</v>
+        <v>6.5499999999999972</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1786,10 +1867,10 @@
         <v>-4.2249999999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>8.9229166670000009</v>
+        <v>-3.5208333333333313</v>
       </c>
       <c r="E4" s="1">
-        <v>1.5416666670000001</v>
+        <v>13.31666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1800,10 +1881,10 @@
         <v>-6.4333333330000002</v>
       </c>
       <c r="D5" s="1">
-        <v>13.389583330000001</v>
+        <v>-5.1749999999999963</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0750000000000002</v>
+        <v>19.999999999999968</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1814,10 +1895,10 @@
         <v>-8.5458333339999992</v>
       </c>
       <c r="D6" s="1">
-        <v>17.922916669999999</v>
+        <v>-7.2916666666666643</v>
       </c>
       <c r="E6" s="1">
-        <v>2.9249999999999998</v>
+        <v>26.583333333333293</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1828,10 +1909,10 @@
         <v>-10.9125</v>
       </c>
       <c r="D7" s="1">
-        <v>22.226041670000001</v>
+        <v>-9.0458333333333165</v>
       </c>
       <c r="E7" s="1">
-        <v>3.5125000000000002</v>
+        <v>33.333333333333314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1842,10 +1923,10 @@
         <v>-12.74583333</v>
       </c>
       <c r="D8" s="1">
-        <v>26.746874999999999</v>
+        <v>-11.083333333333304</v>
       </c>
       <c r="E8" s="1">
-        <v>3.8791666660000002</v>
+        <v>40.01666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1856,10 +1937,10 @@
         <v>-14.97083333</v>
       </c>
       <c r="D9" s="1">
-        <v>31.307291670000001</v>
+        <v>-13.016666666666641</v>
       </c>
       <c r="E9" s="1">
-        <v>4.4708333339999999</v>
+        <v>46.599999999999966</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1870,10 +1951,10 @@
         <v>-17.195833329999999</v>
       </c>
       <c r="D10" s="1">
-        <v>35.864583330000002</v>
+        <v>-15.033333333333312</v>
       </c>
       <c r="E10" s="1">
-        <v>5.3250000000000002</v>
+        <v>53.299999999999976</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1884,10 +1965,10 @@
         <v>-19.574999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>40.325000000000003</v>
+        <v>-16.874999999999964</v>
       </c>
       <c r="E11" s="1">
-        <v>5.6833333340000003</v>
+        <v>59.416666666666643</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1898,10 +1979,10 @@
         <v>-21.912500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>44.794791670000002</v>
+        <v>-18.649999999999959</v>
       </c>
       <c r="E12" s="1">
-        <v>5.7041666659999999</v>
+        <v>65.749999999999972</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1912,10 +1993,10 @@
         <v>-24.104166670000001</v>
       </c>
       <c r="D13" s="1">
-        <v>49.395833330000002</v>
+        <v>-20.316666666666624</v>
       </c>
       <c r="E13" s="1">
-        <v>5.6333333330000004</v>
+        <v>72.116666666666617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1926,10 +2007,10 @@
         <v>-26.520833329999999</v>
       </c>
       <c r="D14" s="1">
-        <v>53.773958329999999</v>
+        <v>-22.191666666666631</v>
       </c>
       <c r="E14" s="1">
-        <v>6.0208333339999998</v>
+        <v>78.666666666666643</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1940,10 +2021,10 @@
         <v>-28.895833329999999</v>
       </c>
       <c r="D15" s="1">
-        <v>58.170833330000001</v>
+        <v>-24.0208333333333</v>
       </c>
       <c r="E15" s="1">
-        <v>6.5333333329999999</v>
+        <v>85.183333333333309</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1954,10 +2035,10 @@
         <v>-31.179166670000001</v>
       </c>
       <c r="D16" s="1">
-        <v>62.740625000000001</v>
+        <v>-25.84166666666664</v>
       </c>
       <c r="E16" s="1">
-        <v>6.6208333340000003</v>
+        <v>91.649999999999949</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1968,10 +2049,10 @@
         <v>-33.375</v>
       </c>
       <c r="D17" s="1">
-        <v>66.992708329999999</v>
+        <v>-27.808333333333291</v>
       </c>
       <c r="E17" s="1">
-        <v>6.9791666660000002</v>
+        <v>98.149999999999892</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1982,10 +2063,10 @@
         <v>-35.470833329999998</v>
       </c>
       <c r="D18" s="1">
-        <v>71.379166659999996</v>
+        <v>-29.579166666666652</v>
       </c>
       <c r="E18" s="1">
-        <v>7.7166666670000001</v>
+        <v>104.56666666666631</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1996,10 +2077,10 @@
         <v>-37.516666669999999</v>
       </c>
       <c r="D19" s="1">
-        <v>75.951041669999995</v>
+        <v>-31.166666666666629</v>
       </c>
       <c r="E19" s="1">
-        <v>8.1624999959999993</v>
+        <v>110.83333333333292</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2010,10 +2091,10 @@
         <v>-39.829166669999999</v>
       </c>
       <c r="D20" s="1">
-        <v>80.108333329999994</v>
+        <v>-32.987499999999955</v>
       </c>
       <c r="E20" s="1">
-        <v>7.6833333330000002</v>
+        <v>117.33333333333283</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2024,10 +2105,10 @@
         <v>-41.995833330000004</v>
       </c>
       <c r="D21" s="1">
-        <v>84.59375</v>
+        <v>-34.858333333333306</v>
       </c>
       <c r="E21" s="1">
-        <v>8.5249999970000001</v>
+        <v>123.76666666666631</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2038,10 +2119,10 @@
         <v>-44.204166669999999</v>
       </c>
       <c r="D22" s="1">
-        <v>88.890625</v>
+        <v>-36.51666666666663</v>
       </c>
       <c r="E22" s="1">
-        <v>8.3541666669999994</v>
+        <v>130.0166666666664</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2052,10 +2133,10 @@
         <v>-46.458333330000002</v>
       </c>
       <c r="D23" s="1">
-        <v>93.348958339999996</v>
+        <v>-37.991666666666646</v>
       </c>
       <c r="E23" s="1">
-        <v>8.8541666669999994</v>
+        <v>136.5166666666664</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2066,10 +2147,10 @@
         <v>-48.791666669999998</v>
       </c>
       <c r="D24" s="1">
-        <v>97.580208330000005</v>
+        <v>-39.441666666666627</v>
       </c>
       <c r="E24" s="1">
-        <v>9.5624999959999997</v>
+        <v>142.76666666666634</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2080,10 +2161,10 @@
         <v>-50.454166669999999</v>
       </c>
       <c r="D25" s="1">
-        <v>101.8552083</v>
+        <v>-41.049999999999976</v>
       </c>
       <c r="E25" s="1">
-        <v>10.179166670000001</v>
+        <v>149.28333333333302</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2094,10 +2175,10 @@
         <v>-52.233333330000001</v>
       </c>
       <c r="D26" s="1">
-        <v>106.2145833</v>
+        <v>-42.191666666666627</v>
       </c>
       <c r="E26" s="1">
-        <v>10.891666669999999</v>
+        <v>155.28333333333291</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2108,10 +2189,10 @@
         <v>-54.254166669999996</v>
       </c>
       <c r="D27" s="1">
-        <v>110.559375</v>
+        <v>-43.491666666666632</v>
       </c>
       <c r="E27" s="1">
-        <v>11.362500000000001</v>
+        <v>161.13333333333293</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2122,10 +2203,10 @@
         <v>-55.708333330000002</v>
       </c>
       <c r="D28" s="1">
-        <v>114.8010417</v>
+        <v>-44.608333333333306</v>
       </c>
       <c r="E28" s="1">
-        <v>12.22916667</v>
+        <v>167.13333333333313</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2136,10 +2217,10 @@
         <v>-57.145833330000002</v>
       </c>
       <c r="D29" s="1">
-        <v>119.1947917</v>
+        <v>-46.049999999999969</v>
       </c>
       <c r="E29" s="1">
-        <v>12.65416667</v>
+        <v>173.11666666666633</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2150,10 +2231,10 @@
         <v>-59.15</v>
       </c>
       <c r="D30" s="1">
-        <v>123.43229169999999</v>
+        <v>-46.883333333333304</v>
       </c>
       <c r="E30" s="1">
-        <v>12.604166660000001</v>
+        <v>178.63333333333301</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2164,10 +2245,10 @@
         <v>-60.854166669999998</v>
       </c>
       <c r="D31" s="1">
-        <v>127.6104167</v>
+        <v>-47.533333333333303</v>
       </c>
       <c r="E31" s="1">
-        <v>12.375</v>
+        <v>184.34999999999974</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2178,10 +2259,10 @@
         <v>-62.65</v>
       </c>
       <c r="D32" s="1">
-        <v>132.02187499999999</v>
+        <v>-48.12083333333333</v>
       </c>
       <c r="E32" s="1">
-        <v>12.945833329999999</v>
+        <v>189.88333333333301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2192,10 +2273,10 @@
         <v>-64.587500000000006</v>
       </c>
       <c r="D33" s="1">
-        <v>136.12708330000001</v>
+        <v>-48.712499999999977</v>
       </c>
       <c r="E33" s="1">
-        <v>13.25833334</v>
+        <v>195.26666666666631</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2206,10 +2287,10 @@
         <v>-66.041666669999998</v>
       </c>
       <c r="D34" s="1">
-        <v>140.44374999999999</v>
+        <v>-49.462499999999963</v>
       </c>
       <c r="E34" s="1">
-        <v>13.925000000000001</v>
+        <v>200.73333333333321</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2220,10 +2301,10 @@
         <v>-66.516666670000006</v>
       </c>
       <c r="D35" s="1">
-        <v>144.64687499999999</v>
+        <v>-49.77916666666664</v>
       </c>
       <c r="E35" s="1">
-        <v>15.3125</v>
+        <v>206.23333333333304</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2234,10 +2315,10 @@
         <v>-67.566666670000004</v>
       </c>
       <c r="D36" s="1">
-        <v>148.47916670000001</v>
+        <v>-50.22499999999998</v>
       </c>
       <c r="E36" s="1">
-        <v>16.233333340000001</v>
+        <v>211.88333333333321</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2248,10 +2329,10 @@
         <v>-67.704166670000006</v>
       </c>
       <c r="D37" s="1">
-        <v>152.27916669999999</v>
+        <v>-50.5208333333333</v>
       </c>
       <c r="E37" s="1">
-        <v>17.233333330000001</v>
+        <v>217.14999999999972</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2262,10 +2343,10 @@
         <v>-68.620833329999996</v>
       </c>
       <c r="D38" s="1">
-        <v>156.30312499999999</v>
+        <v>-50.637499999999967</v>
       </c>
       <c r="E38" s="1">
-        <v>17.787500000000001</v>
+        <v>222.36666666666628</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2276,10 +2357,10 @@
         <v>-69.020833330000002</v>
       </c>
       <c r="D39" s="1">
-        <v>160.48854170000001</v>
+        <v>-50.449999999999974</v>
       </c>
       <c r="E39" s="1">
-        <v>18.5625</v>
+        <v>226.81666666666632</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2290,10 +2371,10 @@
         <v>-68.383333329999999</v>
       </c>
       <c r="D40" s="1">
-        <v>164.38124999999999</v>
+        <v>-49.791666666666629</v>
       </c>
       <c r="E40" s="1">
-        <v>20.158333330000001</v>
+        <v>231.64999999999964</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2304,10 +2385,10 @@
         <v>-67.900000000000006</v>
       </c>
       <c r="D41" s="1">
-        <v>168.25624999999999</v>
+        <v>-48.941666666666642</v>
       </c>
       <c r="E41" s="1">
-        <v>21.94166667</v>
+        <v>236.34999999999954</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2318,10 +2399,10 @@
         <v>-67.733333329999994</v>
       </c>
       <c r="D42" s="1">
-        <v>171.77187499999999</v>
+        <v>-47.799999999999983</v>
       </c>
       <c r="E42" s="1">
-        <v>23.412500000000001</v>
+        <v>240.28333333333302</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2332,10 +2413,10 @@
         <v>-65.962500000000006</v>
       </c>
       <c r="D43" s="1">
-        <v>174.83437499999999</v>
+        <v>-45.95416666666663</v>
       </c>
       <c r="E43" s="1">
-        <v>25.862500000000001</v>
+        <v>243.89999999999972</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2346,10 +2427,10 @@
         <v>-63.566666669999996</v>
       </c>
       <c r="D44" s="1">
-        <v>177.33229170000001</v>
+        <v>-44.666666666666643</v>
       </c>
       <c r="E44" s="1">
-        <v>28.82083334</v>
+        <v>247.61666666666633</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2360,10 +2441,10 @@
         <v>-59.962499999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>179.33125000000001</v>
+        <v>-42.383333333333312</v>
       </c>
       <c r="E45" s="1">
-        <v>32.558333330000004</v>
+        <v>250.94999999999973</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2374,10 +2455,10 @@
         <v>-54.679166670000001</v>
       </c>
       <c r="D46" s="1">
-        <v>181.2041667</v>
+        <v>-40.65416666666664</v>
       </c>
       <c r="E46" s="1">
-        <v>37.38333334</v>
+        <v>254.98333333333312</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2388,10 +2469,10 @@
         <v>-50.183333330000004</v>
       </c>
       <c r="D47" s="1">
-        <v>182.30312499999999</v>
+        <v>-38.195833333333319</v>
       </c>
       <c r="E47" s="1">
-        <v>40.220833329999998</v>
+        <v>258.31666666666632</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2402,10 +2483,10 @@
         <v>-44.35</v>
       </c>
       <c r="D48" s="1">
-        <v>183.05625000000001</v>
+        <v>-35.329166666666644</v>
       </c>
       <c r="E48" s="1">
-        <v>44.758333329999999</v>
+        <v>260.74999999999972</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2416,10 +2497,10 @@
         <v>-38.154166670000002</v>
       </c>
       <c r="D49" s="1">
-        <v>183.38437500000001</v>
+        <v>-31.820833333333304</v>
       </c>
       <c r="E49" s="1">
-        <v>49.745833339999997</v>
+        <v>262.683333333333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2430,10 +2511,10 @@
         <v>-31.4</v>
       </c>
       <c r="D50" s="1">
-        <v>183.57499999999999</v>
+        <v>-27.483333333333313</v>
       </c>
       <c r="E50" s="1">
-        <v>55.766666669999999</v>
+        <v>264.08333333333314</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2444,10 +2525,10 @@
         <v>-24.970833330000001</v>
       </c>
       <c r="D51" s="1">
-        <v>183.68958330000001</v>
+        <v>-23.054166666666639</v>
       </c>
       <c r="E51" s="1">
-        <v>61.24166666</v>
+        <v>265.01666666666631</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2458,10 +2539,10 @@
         <v>-17.324999999999999</v>
       </c>
       <c r="D52" s="1">
-        <v>183.78333330000001</v>
+        <v>-17.97083333333331</v>
       </c>
       <c r="E52" s="1">
-        <v>66.533333330000005</v>
+        <v>265.49999999999966</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2472,10 +2553,10 @@
         <v>-10.241666670000001</v>
       </c>
       <c r="D53" s="1">
-        <v>184.48958329999999</v>
+        <v>-12.37083333333331</v>
       </c>
       <c r="E53" s="1">
-        <v>71.275000000000006</v>
+        <v>265.31666666666644</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2486,10 +2567,10 @@
         <v>-2.983333333</v>
       </c>
       <c r="D54" s="1">
-        <v>185.0302083</v>
+        <v>-6.3833333333333293</v>
       </c>
       <c r="E54" s="1">
-        <v>76.3125</v>
+        <v>264.81666666666649</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2500,10 +2581,10 @@
         <v>4.2249999999999996</v>
       </c>
       <c r="D55" s="1">
-        <v>185.4854167</v>
+        <v>0.20833333333333365</v>
       </c>
       <c r="E55" s="1">
-        <v>80.708333339999996</v>
+        <v>263.5833333333332</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2514,10 +2595,10 @@
         <v>13.25</v>
       </c>
       <c r="D56" s="1">
-        <v>186.14375000000001</v>
+        <v>6.8874999999999975</v>
       </c>
       <c r="E56" s="1">
-        <v>86.741666670000001</v>
+        <v>262.0833333333332</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2528,10 +2609,10 @@
         <v>19.791666670000001</v>
       </c>
       <c r="D57" s="1">
-        <v>186.66979169999999</v>
+        <v>13.791666666666629</v>
       </c>
       <c r="E57" s="1">
-        <v>90.470833339999999</v>
+        <v>260.46666666666653</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2542,10 +2623,10 @@
         <v>27.791666670000001</v>
       </c>
       <c r="D58" s="1">
-        <v>187.30104170000001</v>
+        <v>20.816666666666642</v>
       </c>
       <c r="E58" s="1">
-        <v>95.512500000000003</v>
+        <v>258.7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2556,10 +2637,10 @@
         <v>35.208333330000002</v>
       </c>
       <c r="D59" s="1">
-        <v>187.8052083</v>
+        <v>27.72083333333331</v>
       </c>
       <c r="E59" s="1">
-        <v>100.0958333</v>
+        <v>257.1333333333331</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2570,10 +2651,10 @@
         <v>42.895833330000002</v>
       </c>
       <c r="D60" s="1">
-        <v>188.19791670000001</v>
+        <v>35.05833333333333</v>
       </c>
       <c r="E60" s="1">
-        <v>104.825</v>
+        <v>254.93333333333331</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2584,10 +2665,10 @@
         <v>50.583333330000002</v>
       </c>
       <c r="D61" s="1">
-        <v>188.72395829999999</v>
+        <v>42.5</v>
       </c>
       <c r="E61" s="1">
-        <v>109.27083330000001</v>
+        <v>252.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2598,10 +2679,10 @@
         <v>57.8125</v>
       </c>
       <c r="D62" s="1">
-        <v>189.09895829999999</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1">
-        <v>113.35416669999999</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2612,10 +2693,10 @@
         <v>65.125</v>
       </c>
       <c r="D63" s="1">
-        <v>189.61458329999999</v>
+        <v>57.5</v>
       </c>
       <c r="E63" s="1">
-        <v>117.875</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2626,10 +2707,10 @@
         <v>72.0625</v>
       </c>
       <c r="D64" s="1">
-        <v>190.18229170000001</v>
+        <v>65</v>
       </c>
       <c r="E64" s="1">
-        <v>122.6875</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2640,10 +2721,10 @@
         <v>79.75</v>
       </c>
       <c r="D65" s="1">
-        <v>190.71354170000001</v>
+        <v>72.5</v>
       </c>
       <c r="E65" s="1">
-        <v>127.72916669999999</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2654,10 +2735,10 @@
         <v>87.625</v>
       </c>
       <c r="D66" s="1">
-        <v>191.359375</v>
+        <v>80</v>
       </c>
       <c r="E66" s="1">
-        <v>133.14583329999999</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2668,10 +2749,10 @@
         <v>94.0625</v>
       </c>
       <c r="D67" s="1">
-        <v>191.71875</v>
+        <v>87.5</v>
       </c>
       <c r="E67" s="1">
-        <v>136.625</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2763,10 @@
         <v>101.0625</v>
       </c>
       <c r="D68" s="1">
-        <v>192.296875</v>
+        <v>95</v>
       </c>
       <c r="E68" s="1">
-        <v>141.0625</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2696,10 +2777,10 @@
         <v>107.625</v>
       </c>
       <c r="D69" s="1">
-        <v>192.88020829999999</v>
+        <v>102.5</v>
       </c>
       <c r="E69" s="1">
-        <v>145.39583329999999</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2710,10 +2791,10 @@
         <v>114.3125</v>
       </c>
       <c r="D70" s="1">
-        <v>193.390625</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1">
-        <v>149.6875</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2724,10 +2805,10 @@
         <v>121.75</v>
       </c>
       <c r="D71" s="1">
-        <v>193.89583329999999</v>
+        <v>117.5</v>
       </c>
       <c r="E71" s="1">
-        <v>154.25</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2738,10 +2819,10 @@
         <v>128.5</v>
       </c>
       <c r="D72" s="1">
-        <v>194.28645829999999</v>
+        <v>125</v>
       </c>
       <c r="E72" s="1">
-        <v>157.77083329999999</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2752,10 +2833,10 @@
         <v>134.25</v>
       </c>
       <c r="D73" s="1">
-        <v>194.578125</v>
+        <v>132.5</v>
       </c>
       <c r="E73" s="1">
-        <v>160.60416670000001</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2766,10 +2847,10 @@
         <v>141.5625</v>
       </c>
       <c r="D74" s="1">
-        <v>195.171875</v>
+        <v>140</v>
       </c>
       <c r="E74" s="1">
-        <v>164.89583329999999</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2780,10 +2861,10 @@
         <v>148.6875</v>
       </c>
       <c r="D75" s="1">
-        <v>195.765625</v>
+        <v>147.5</v>
       </c>
       <c r="E75" s="1">
-        <v>168.85416670000001</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2794,10 +2875,10 @@
         <v>156.5625</v>
       </c>
       <c r="D76" s="1">
-        <v>196.515625</v>
+        <v>155</v>
       </c>
       <c r="E76" s="1">
-        <v>173.85416670000001</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2808,10 +2889,10 @@
         <v>163.25</v>
       </c>
       <c r="D77" s="1">
-        <v>197.046875</v>
+        <v>162.5</v>
       </c>
       <c r="E77" s="1">
-        <v>177.5625</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2822,10 +2903,10 @@
         <v>170.6875</v>
       </c>
       <c r="D78" s="1">
-        <v>197.59375</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1">
-        <v>182.45833329999999</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2836,10 +2917,10 @@
         <v>178.75</v>
       </c>
       <c r="D79" s="1">
-        <v>198.17708329999999</v>
+        <v>177.5</v>
       </c>
       <c r="E79" s="1">
-        <v>186.95833329999999</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2850,10 +2931,10 @@
         <v>185.875</v>
       </c>
       <c r="D80" s="1">
-        <v>198.68229170000001</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1">
-        <v>191.52083329999999</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2864,10 +2945,10 @@
         <v>193.4375</v>
       </c>
       <c r="D81" s="1">
-        <v>199.33854170000001</v>
+        <v>192.5</v>
       </c>
       <c r="E81" s="1">
-        <v>196.72916670000001</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2883,6 +2964,10 @@
       <c r="E82" s="1">
         <v>200</v>
       </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Experiments/Part4-DoNothing/DocPop-leech.xlsx
+++ b/Experiments/Part4-DoNothing/DocPop-leech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="1520" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Setting1</t>
-  </si>
-  <si>
-    <t>Taste1(avg)</t>
-  </si>
-  <si>
     <t>Setting 2</t>
   </si>
   <si>
-    <t>Taste 0 (avg)</t>
+    <t>Taste1</t>
   </si>
   <si>
-    <t>Taste0-leech(avg)</t>
+    <t>Taste 0-leech</t>
   </si>
   <si>
-    <t>Taste 1-leech (avg)</t>
+    <t>Setting 1</t>
+  </si>
+  <si>
+    <t>Taste 1-leech</t>
+  </si>
+  <si>
+    <t>Taste 0</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste1(avg)</c:v>
+                  <c:v>Setting 1 Taste1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -150,246 +150,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$A$3:$A$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$A$3:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>7.325</c:v>
+                  <c:v>7.29523809523809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.18125</c:v>
+                  <c:v>14.61904761904758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.28333333</c:v>
+                  <c:v>21.86666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.453125</c:v>
+                  <c:v>29.15238095238091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.46979167</c:v>
+                  <c:v>36.41904761904758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.78229167</c:v>
+                  <c:v>43.61428571428566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.99270833</c:v>
+                  <c:v>50.70476190476186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.153125</c:v>
+                  <c:v>57.9571428571428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.30208333</c:v>
+                  <c:v>65.15714285714282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.49479167</c:v>
+                  <c:v>72.22857142857137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.74270833</c:v>
+                  <c:v>79.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.75104167</c:v>
+                  <c:v>86.47619047619045</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.89479167</c:v>
+                  <c:v>93.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100.153125</c:v>
+                  <c:v>100.8619047619044</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107.06875</c:v>
+                  <c:v>107.9714285714282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.1010417</c:v>
+                  <c:v>115.1523809523805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121.1958333</c:v>
+                  <c:v>122.1809523809519</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.1947917</c:v>
+                  <c:v>129.2714285714282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.1072917</c:v>
+                  <c:v>136.4333333333329</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>142.0677083</c:v>
+                  <c:v>143.57619047619</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149.1395833</c:v>
+                  <c:v>150.6428571428568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.89375</c:v>
+                  <c:v>157.5714285714281</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162.8302083</c:v>
+                  <c:v>164.5619047619043</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>169.9833333</c:v>
+                  <c:v>171.5714285714281</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176.921875</c:v>
+                  <c:v>178.3619047619044</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>183.6604167</c:v>
+                  <c:v>185.2809523809518</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>190.6239583</c:v>
+                  <c:v>192.1857142857138</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>197.4291667</c:v>
+                  <c:v>199.1285714285708</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>204.1302083</c:v>
+                  <c:v>205.9380952380947</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>210.8958333</c:v>
+                  <c:v>212.6571428571422</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>217.359375</c:v>
+                  <c:v>219.5047619047614</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.7395833</c:v>
+                  <c:v>226.1428571428567</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>230.35</c:v>
+                  <c:v>232.8142857142851</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>236.4833333</c:v>
+                  <c:v>239.2428571428566</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>242.4302083</c:v>
+                  <c:v>245.7571428571423</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>248.021875</c:v>
+                  <c:v>251.7714285714279</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>253.546875</c:v>
+                  <c:v>257.9476190476185</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>258.7791667</c:v>
+                  <c:v>263.9666666666662</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>263.65</c:v>
+                  <c:v>269.5047619047612</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>268.1083333</c:v>
+                  <c:v>274.2095238095235</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>271.9947917</c:v>
+                  <c:v>278.4523809523802</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>274.9416667</c:v>
+                  <c:v>282.3190476190472</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>276.8822917</c:v>
+                  <c:v>285.6761904761901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>278.1489583</c:v>
+                  <c:v>286.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>278.5625</c:v>
+                  <c:v>286.5428571428568</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>278.2583333</c:v>
+                  <c:v>284.8714285714285</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>277.3135417</c:v>
+                  <c:v>282.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>276.0375</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.6677083</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.96875</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>271.31875</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.3875</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.2395833</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.1083333</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.7770833</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.4854167</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>258.0104167</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.5677083</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>253.1458333</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.6510417</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>248.1354167</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.5885417</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>243.1041667</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.6354167</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.046875</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.5052083</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.9270833</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.359375</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.8541667</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.2916667</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.6458333</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.1302083</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.5989583</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.1302083</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.5625</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.0572917</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.6041667</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.0729167</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.578125</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -408,7 +408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste0-leech(avg)</c:v>
+                  <c:v>Setting 1 Taste 0-leech</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,246 +418,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$B$3:$B$82</c:f>
+              <c:f>'Setting1-Result100.csv'!$B$3:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>-2.35</c:v>
+                  <c:v>-2.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.225</c:v>
+                  <c:v>-4.766666666666662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.433333333</c:v>
+                  <c:v>-7.044444444444439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.545833334</c:v>
+                  <c:v>-9.322222222222217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.9125</c:v>
+                  <c:v>-11.58888888888885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.74583333</c:v>
+                  <c:v>-13.91111111111108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.97083333</c:v>
+                  <c:v>-15.87777777777774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.19583333</c:v>
+                  <c:v>-18.13333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.575</c:v>
+                  <c:v>-20.46666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21.9125</c:v>
+                  <c:v>-22.59999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.10416667</c:v>
+                  <c:v>-24.89999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.52083333</c:v>
+                  <c:v>-27.03333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-28.89583333</c:v>
+                  <c:v>-29.37777777777776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-31.17916667</c:v>
+                  <c:v>-31.7222222222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-33.375</c:v>
+                  <c:v>-33.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-35.47083333</c:v>
+                  <c:v>-36.1555555555555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-37.51666667</c:v>
+                  <c:v>-38.39999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-39.82916667</c:v>
+                  <c:v>-40.68888888888883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-41.99583333</c:v>
+                  <c:v>-42.96666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-44.20416667</c:v>
+                  <c:v>-45.21111111111107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-46.45833333</c:v>
+                  <c:v>-47.48888888888885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-48.79166667</c:v>
+                  <c:v>-49.6555555555555</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-50.45416667</c:v>
+                  <c:v>-51.77777777777776</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-52.23333333</c:v>
+                  <c:v>-53.84444444444441</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-54.25416667</c:v>
+                  <c:v>-55.58888888888883</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-55.70833333</c:v>
+                  <c:v>-57.51111111111106</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-57.14583333</c:v>
+                  <c:v>-59.4444444444444</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-59.15</c:v>
+                  <c:v>-61.35555555555551</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-60.85416667</c:v>
+                  <c:v>-63.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-62.65</c:v>
+                  <c:v>-65.07777777777774</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-64.5875</c:v>
+                  <c:v>-66.98888888888884</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-66.04166667</c:v>
+                  <c:v>-68.83333333333327</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-66.51666667</c:v>
+                  <c:v>-70.69999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-67.56666667</c:v>
+                  <c:v>-71.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-67.70416667</c:v>
+                  <c:v>-73.47777777777773</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-68.62083333</c:v>
+                  <c:v>-73.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-69.02083333</c:v>
+                  <c:v>-74.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-68.38333333</c:v>
+                  <c:v>-75.82222222222218</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-67.9</c:v>
+                  <c:v>-76.09999999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-67.73333332999999</c:v>
+                  <c:v>-75.77777777777771</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-65.9625</c:v>
+                  <c:v>-74.47777777777775</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-63.56666667</c:v>
+                  <c:v>-73.21111111111106</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-59.9625</c:v>
+                  <c:v>-71.38888888888883</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-54.67916667</c:v>
+                  <c:v>-67.04444444444442</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-50.18333333</c:v>
+                  <c:v>-61.68888888888887</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-44.35</c:v>
+                  <c:v>-54.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-38.15416667</c:v>
+                  <c:v>-47.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-31.4</c:v>
+                  <c:v>-40.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-24.97083333</c:v>
+                  <c:v>-32.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.325</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-10.24166667</c:v>
+                  <c:v>-17.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.983333333</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.225</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.25</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.79166667</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>27.79166667</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.20833333</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42.89583333</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.58333333</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>57.8125</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65.125</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.0625</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>79.75</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>87.625</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>101.0625</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>107.625</c:v>
+                  <c:v>102.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>114.3125</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>121.75</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>128.5</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>134.25</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>141.5625</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>148.6875</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>156.5625</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>163.25</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>170.6875</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>178.75</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>185.875</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>193.4375</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -677,11 +677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118876392"/>
-        <c:axId val="2100305912"/>
+        <c:axId val="-2088256776"/>
+        <c:axId val="2140867000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118876392"/>
+        <c:axId val="-2088256776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100305912"/>
+        <c:crossAx val="2140867000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -717,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100305912"/>
+        <c:axId val="2140867000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118876392"/>
+        <c:crossAx val="-2088256776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,11 +794,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$D$1:$D$2</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 2 Taste 1-leech (avg)</c:v>
+                  <c:v>Taste 1-leech -1.942857143</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,246 +808,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$D$3:$D$83</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$4:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>-1.616666666666665</c:v>
+                  <c:v>-4.052380952380946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.520833333333331</c:v>
+                  <c:v>-6.142857142857136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.174999999999996</c:v>
+                  <c:v>-8.261904761904754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.291666666666664</c:v>
+                  <c:v>-10.27619047619045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.045833333333316</c:v>
+                  <c:v>-12.32380952380948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.0833333333333</c:v>
+                  <c:v>-14.27619047619044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-13.01666666666664</c:v>
+                  <c:v>-16.49523809523805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.03333333333331</c:v>
+                  <c:v>-18.61428571428566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.87499999999996</c:v>
+                  <c:v>-20.67142857142852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-18.64999999999996</c:v>
+                  <c:v>-22.72857142857139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.31666666666662</c:v>
+                  <c:v>-24.88571428571423</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.19166666666663</c:v>
+                  <c:v>-26.83809523809517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-24.0208333333333</c:v>
+                  <c:v>-28.87142857142853</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-25.84166666666664</c:v>
+                  <c:v>-30.69999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-27.80833333333329</c:v>
+                  <c:v>-32.76190476190472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-29.57916666666665</c:v>
+                  <c:v>-34.59523809523806</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-31.16666666666663</c:v>
+                  <c:v>-36.347619047619</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-32.98749999999995</c:v>
+                  <c:v>-38.31428571428567</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-34.85833333333331</c:v>
+                  <c:v>-40.17619047619042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-36.51666666666663</c:v>
+                  <c:v>-42.19047619047614</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-37.99166666666665</c:v>
+                  <c:v>-43.71428571428566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-39.44166666666663</c:v>
+                  <c:v>-45.35238095238091</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-41.04999999999997</c:v>
+                  <c:v>-46.96190476190473</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-42.19166666666663</c:v>
+                  <c:v>-48.54285714285707</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-43.49166666666663</c:v>
+                  <c:v>-49.9428571428571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-44.6083333333333</c:v>
+                  <c:v>-51.48571428571424</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-46.04999999999997</c:v>
+                  <c:v>-52.55714285714281</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-46.8833333333333</c:v>
+                  <c:v>-53.81904761904757</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-47.5333333333333</c:v>
+                  <c:v>-54.85238095238088</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-48.12083333333333</c:v>
+                  <c:v>-56.31904761904756</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-48.71249999999997</c:v>
+                  <c:v>-57.18095238095232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-49.46249999999996</c:v>
+                  <c:v>-57.89999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-49.77916666666664</c:v>
+                  <c:v>-58.81428571428567</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-50.22499999999998</c:v>
+                  <c:v>-58.73333333333327</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-50.5208333333333</c:v>
+                  <c:v>-59.42857142857138</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-50.63749999999997</c:v>
+                  <c:v>-59.60952380952375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-50.44999999999997</c:v>
+                  <c:v>-59.51904761904758</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-49.79166666666663</c:v>
+                  <c:v>-59.2428571428571</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-48.94166666666664</c:v>
+                  <c:v>-58.14761904761899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-47.79999999999998</c:v>
+                  <c:v>-57.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-45.95416666666663</c:v>
+                  <c:v>-55.90952380952374</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-44.66666666666664</c:v>
+                  <c:v>-53.72380952380946</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-42.38333333333331</c:v>
+                  <c:v>-51.5428571428571</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-40.65416666666664</c:v>
+                  <c:v>-49.17142857142852</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-38.19583333333332</c:v>
+                  <c:v>-45.03809523809518</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-35.32916666666664</c:v>
+                  <c:v>-40.52380952380948</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-31.8208333333333</c:v>
+                  <c:v>-34.78095238095232</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-27.48333333333331</c:v>
+                  <c:v>-28.82857142857139</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-23.05416666666664</c:v>
+                  <c:v>-22.59999999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.97083333333331</c:v>
+                  <c:v>-16.29523809523807</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-12.37083333333331</c:v>
+                  <c:v>-9.39047619047619</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-6.38333333333333</c:v>
+                  <c:v>-2.052380952380951</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.208333333333334</c:v>
+                  <c:v>5.276190476190474</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.887499999999997</c:v>
+                  <c:v>12.67619047619047</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.79166666666663</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20.81666666666664</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>27.72083333333331</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35.05833333333333</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42.5</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.0</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>57.5</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.0</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>72.5</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>80.0</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>87.5</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.0</c:v>
+                  <c:v>102.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>102.5</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>110.0</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>117.5</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>125.0</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>132.5</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>140.0</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>147.5</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>155.0</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>162.5</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>170.0</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>177.5</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>185.0</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>192.5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1062,11 +1062,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$E$1:$E$2</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$2:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 2 Taste 0 (avg)</c:v>
+                  <c:v>Taste 0 6.988888889</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1076,246 +1076,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$E$3:$E$83</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$4:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>6.549999999999997</c:v>
+                  <c:v>13.95555555555552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.31666666666664</c:v>
+                  <c:v>20.9555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.99999999999997</c:v>
+                  <c:v>27.93333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.58333333333329</c:v>
+                  <c:v>34.87777777777772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.33333333333331</c:v>
+                  <c:v>41.76666666666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.01666666666663</c:v>
+                  <c:v>48.55555555555551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.59999999999996</c:v>
+                  <c:v>55.45555555555551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.29999999999997</c:v>
+                  <c:v>62.37777777777774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.41666666666664</c:v>
+                  <c:v>69.22222222222217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.74999999999997</c:v>
+                  <c:v>76.31111111111108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.11666666666661</c:v>
+                  <c:v>83.12222222222218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.66666666666664</c:v>
+                  <c:v>89.65555555555549</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.18333333333331</c:v>
+                  <c:v>96.18888888888884</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.64999999999994</c:v>
+                  <c:v>102.6888888888883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.1499999999999</c:v>
+                  <c:v>109.4555555555552</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.5666666666663</c:v>
+                  <c:v>115.9111111111107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.8333333333329</c:v>
+                  <c:v>122.5666666666661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.3333333333328</c:v>
+                  <c:v>129.4111111111107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123.7666666666663</c:v>
+                  <c:v>136.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.0166666666664</c:v>
+                  <c:v>143.0555555555551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136.5166666666664</c:v>
+                  <c:v>149.5999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142.7666666666663</c:v>
+                  <c:v>156.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.283333333333</c:v>
+                  <c:v>162.4333333333328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155.283333333333</c:v>
+                  <c:v>168.5999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>161.1333333333329</c:v>
+                  <c:v>174.7666666666662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>167.1333333333331</c:v>
+                  <c:v>181.2111111111107</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>173.1166666666663</c:v>
+                  <c:v>187.3888888888883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>178.633333333333</c:v>
+                  <c:v>193.5444444444438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.3499999999997</c:v>
+                  <c:v>199.1666666666662</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>189.883333333333</c:v>
+                  <c:v>205.6111111111105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>195.2666666666663</c:v>
+                  <c:v>211.1777777777773</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>200.7333333333332</c:v>
+                  <c:v>216.7111111111106</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>206.233333333333</c:v>
+                  <c:v>222.7222222222219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>211.8833333333332</c:v>
+                  <c:v>227.9555555555552</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>217.1499999999997</c:v>
+                  <c:v>233.7222222222218</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>222.3666666666663</c:v>
+                  <c:v>239.1333333333329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>226.8166666666663</c:v>
+                  <c:v>244.0444444444439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>231.6499999999996</c:v>
+                  <c:v>248.9333333333329</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>236.3499999999995</c:v>
+                  <c:v>253.4111111111107</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>240.283333333333</c:v>
+                  <c:v>257.6111111111108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>243.8999999999997</c:v>
+                  <c:v>261.4777777777772</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>247.6166666666663</c:v>
+                  <c:v>265.2444444444441</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>250.9499999999997</c:v>
+                  <c:v>268.6222222222218</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>254.9833333333331</c:v>
+                  <c:v>271.6444444444438</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>258.3166666666663</c:v>
+                  <c:v>273.0888888888884</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>260.7499999999997</c:v>
+                  <c:v>273.7777777777774</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>262.683333333333</c:v>
+                  <c:v>273.4555555555551</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>264.0833333333331</c:v>
+                  <c:v>272.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>265.0166666666663</c:v>
+                  <c:v>271.9666666666665</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>265.4999999999997</c:v>
+                  <c:v>270.6888888888885</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>265.3166666666664</c:v>
+                  <c:v>269.0555555555554</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>264.8166666666665</c:v>
+                  <c:v>266.8777777777777</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5833333333332</c:v>
+                  <c:v>264.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>262.0833333333332</c:v>
+                  <c:v>262.2111111111111</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>260.4666666666665</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>258.7</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.1333333333331</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.9333333333333</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.5</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.0</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.5</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.0</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.5</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.0</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.5</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.0</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.5</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.0</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.5</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.0</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.5</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.0</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.5</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.0</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.5</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.0</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.5</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.0</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.5</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1335,11 +1335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112375800"/>
-        <c:axId val="2110251128"/>
+        <c:axId val="2132065176"/>
+        <c:axId val="-2111769400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112375800"/>
+        <c:axId val="2132065176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110251128"/>
+        <c:crossAx val="-2111769400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1375,7 +1375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110251128"/>
+        <c:axId val="-2111769400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112375800"/>
+        <c:crossAx val="2132065176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,1160 +1814,1167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>7.3250000000000002</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-2.35</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1.6166666666666647</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.5499999999999972</v>
+      <c r="A3">
+        <v>7.2952380952380906</v>
+      </c>
+      <c r="B3">
+        <v>-2.3333333333333299</v>
+      </c>
+      <c r="D3">
+        <v>-1.9428571428571371</v>
+      </c>
+      <c r="E3">
+        <v>6.9888888888888827</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>14.18125</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-4.2249999999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-3.5208333333333313</v>
-      </c>
-      <c r="E4" s="1">
-        <v>13.31666666666664</v>
+      <c r="A4">
+        <v>14.619047619047581</v>
+      </c>
+      <c r="B4">
+        <v>-4.7666666666666622</v>
+      </c>
+      <c r="D4">
+        <v>-4.052380952380946</v>
+      </c>
+      <c r="E4">
+        <v>13.95555555555552</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>21.283333330000001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-6.4333333330000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-5.1749999999999963</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19.999999999999968</v>
+      <c r="A5">
+        <v>21.866666666666607</v>
+      </c>
+      <c r="B5">
+        <v>-7.044444444444439</v>
+      </c>
+      <c r="D5">
+        <v>-6.1428571428571361</v>
+      </c>
+      <c r="E5">
+        <v>20.955555555555502</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>28.453125</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-8.5458333339999992</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-7.2916666666666643</v>
-      </c>
-      <c r="E6" s="1">
-        <v>26.583333333333293</v>
+      <c r="A6">
+        <v>29.152380952380906</v>
+      </c>
+      <c r="B6">
+        <v>-9.3222222222222175</v>
+      </c>
+      <c r="D6">
+        <v>-8.2619047619047539</v>
+      </c>
+      <c r="E6">
+        <v>27.93333333333328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>35.469791669999999</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-10.9125</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-9.0458333333333165</v>
-      </c>
-      <c r="E7" s="1">
-        <v>33.333333333333314</v>
+      <c r="A7">
+        <v>36.419047619047582</v>
+      </c>
+      <c r="B7">
+        <v>-11.588888888888849</v>
+      </c>
+      <c r="D7">
+        <v>-10.276190476190447</v>
+      </c>
+      <c r="E7">
+        <v>34.877777777777723</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>42.782291669999999</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-12.74583333</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-11.083333333333304</v>
-      </c>
-      <c r="E8" s="1">
-        <v>40.01666666666663</v>
+      <c r="A8">
+        <v>43.614285714285657</v>
+      </c>
+      <c r="B8">
+        <v>-13.911111111111079</v>
+      </c>
+      <c r="D8">
+        <v>-12.32380952380948</v>
+      </c>
+      <c r="E8">
+        <v>41.766666666666616</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>49.992708329999999</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-14.97083333</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-13.016666666666641</v>
-      </c>
-      <c r="E9" s="1">
-        <v>46.599999999999966</v>
+      <c r="A9">
+        <v>50.70476190476186</v>
+      </c>
+      <c r="B9">
+        <v>-15.877777777777737</v>
+      </c>
+      <c r="D9">
+        <v>-14.27619047619044</v>
+      </c>
+      <c r="E9">
+        <v>48.555555555555507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>57.153125000000003</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-17.195833329999999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-15.033333333333312</v>
-      </c>
-      <c r="E10" s="1">
-        <v>53.299999999999976</v>
+      <c r="A10">
+        <v>57.957142857142799</v>
+      </c>
+      <c r="B10">
+        <v>-18.13333333333329</v>
+      </c>
+      <c r="D10">
+        <v>-16.495238095238054</v>
+      </c>
+      <c r="E10">
+        <v>55.455555555555506</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>64.302083330000002</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-19.574999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-16.874999999999964</v>
-      </c>
-      <c r="E11" s="1">
-        <v>59.416666666666643</v>
+      <c r="A11">
+        <v>65.157142857142816</v>
+      </c>
+      <c r="B11">
+        <v>-20.466666666666629</v>
+      </c>
+      <c r="D11">
+        <v>-18.614285714285668</v>
+      </c>
+      <c r="E11">
+        <v>62.377777777777737</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>71.494791669999998</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-21.912500000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-18.649999999999959</v>
-      </c>
-      <c r="E12" s="1">
-        <v>65.749999999999972</v>
+      <c r="A12">
+        <v>72.228571428571371</v>
+      </c>
+      <c r="B12">
+        <v>-22.599999999999945</v>
+      </c>
+      <c r="D12">
+        <v>-20.671428571428525</v>
+      </c>
+      <c r="E12">
+        <v>69.222222222222172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>78.742708329999999</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-24.104166670000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-20.316666666666624</v>
-      </c>
-      <c r="E13" s="1">
-        <v>72.116666666666617</v>
+      <c r="A13">
+        <v>79.299999999999955</v>
+      </c>
+      <c r="B13">
+        <v>-24.899999999999959</v>
+      </c>
+      <c r="D13">
+        <v>-22.728571428571392</v>
+      </c>
+      <c r="E13">
+        <v>76.311111111111089</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>85.751041670000006</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-26.520833329999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-22.191666666666631</v>
-      </c>
-      <c r="E14" s="1">
-        <v>78.666666666666643</v>
+      <c r="A14">
+        <v>86.476190476190453</v>
+      </c>
+      <c r="B14">
+        <v>-27.033333333333292</v>
+      </c>
+      <c r="D14">
+        <v>-24.885714285714229</v>
+      </c>
+      <c r="E14">
+        <v>83.122222222222177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>92.894791670000004</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-28.895833329999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-24.0208333333333</v>
-      </c>
-      <c r="E15" s="1">
-        <v>85.183333333333309</v>
+      <c r="A15">
+        <v>93.633333333333297</v>
+      </c>
+      <c r="B15">
+        <v>-29.377777777777755</v>
+      </c>
+      <c r="D15">
+        <v>-26.838095238095171</v>
+      </c>
+      <c r="E15">
+        <v>89.655555555555495</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>100.153125</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-31.179166670000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-25.84166666666664</v>
-      </c>
-      <c r="E16" s="1">
-        <v>91.649999999999949</v>
+      <c r="A16">
+        <v>100.86190476190436</v>
+      </c>
+      <c r="B16">
+        <v>-31.7222222222222</v>
+      </c>
+      <c r="D16">
+        <v>-28.871428571428531</v>
+      </c>
+      <c r="E16">
+        <v>96.18888888888884</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>107.06874999999999</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-33.375</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-27.808333333333291</v>
-      </c>
-      <c r="E17" s="1">
-        <v>98.149999999999892</v>
+      <c r="A17">
+        <v>107.97142857142822</v>
+      </c>
+      <c r="B17">
+        <v>-33.966666666666605</v>
+      </c>
+      <c r="D17">
+        <v>-30.69999999999996</v>
+      </c>
+      <c r="E17">
+        <v>102.6888888888883</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>114.1010417</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-35.470833329999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-29.579166666666652</v>
-      </c>
-      <c r="E18" s="1">
-        <v>104.56666666666631</v>
+      <c r="A18">
+        <v>115.15238095238048</v>
+      </c>
+      <c r="B18">
+        <v>-36.155555555555502</v>
+      </c>
+      <c r="D18">
+        <v>-32.761904761904724</v>
+      </c>
+      <c r="E18">
+        <v>109.45555555555521</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>121.1958333</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-37.516666669999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-31.166666666666629</v>
-      </c>
-      <c r="E19" s="1">
-        <v>110.83333333333292</v>
+      <c r="A19">
+        <v>122.18095238095188</v>
+      </c>
+      <c r="B19">
+        <v>-38.399999999999949</v>
+      </c>
+      <c r="D19">
+        <v>-34.595238095238059</v>
+      </c>
+      <c r="E19">
+        <v>115.91111111111073</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>128.1947917</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-39.829166669999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-32.987499999999955</v>
-      </c>
-      <c r="E20" s="1">
-        <v>117.33333333333283</v>
+      <c r="A20">
+        <v>129.2714285714282</v>
+      </c>
+      <c r="B20">
+        <v>-40.688888888888833</v>
+      </c>
+      <c r="D20">
+        <v>-36.347619047618998</v>
+      </c>
+      <c r="E20">
+        <v>122.56666666666611</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>135.10729169999999</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-41.995833330000004</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-34.858333333333306</v>
-      </c>
-      <c r="E21" s="1">
-        <v>123.76666666666631</v>
+      <c r="A21">
+        <v>136.43333333333288</v>
+      </c>
+      <c r="B21">
+        <v>-42.966666666666633</v>
+      </c>
+      <c r="D21">
+        <v>-38.314285714285667</v>
+      </c>
+      <c r="E21">
+        <v>129.4111111111107</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>142.06770829999999</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-44.204166669999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-36.51666666666663</v>
-      </c>
-      <c r="E22" s="1">
-        <v>130.0166666666664</v>
+      <c r="A22">
+        <v>143.57619047619002</v>
+      </c>
+      <c r="B22">
+        <v>-45.211111111111066</v>
+      </c>
+      <c r="D22">
+        <v>-40.17619047619042</v>
+      </c>
+      <c r="E22">
+        <v>136.14444444444399</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>149.1395833</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-46.458333330000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-37.991666666666646</v>
-      </c>
-      <c r="E23" s="1">
-        <v>136.5166666666664</v>
+      <c r="A23">
+        <v>150.6428571428568</v>
+      </c>
+      <c r="B23">
+        <v>-47.488888888888852</v>
+      </c>
+      <c r="D23">
+        <v>-42.190476190476147</v>
+      </c>
+      <c r="E23">
+        <v>143.05555555555512</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>155.89375000000001</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-48.791666669999998</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-39.441666666666627</v>
-      </c>
-      <c r="E24" s="1">
-        <v>142.76666666666634</v>
+      <c r="A24">
+        <v>157.5714285714281</v>
+      </c>
+      <c r="B24">
+        <v>-49.655555555555495</v>
+      </c>
+      <c r="D24">
+        <v>-43.714285714285658</v>
+      </c>
+      <c r="E24">
+        <v>149.59999999999971</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>162.83020830000001</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-50.454166669999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-41.049999999999976</v>
-      </c>
-      <c r="E25" s="1">
-        <v>149.28333333333302</v>
+      <c r="A25">
+        <v>164.56190476190432</v>
+      </c>
+      <c r="B25">
+        <v>-51.777777777777757</v>
+      </c>
+      <c r="D25">
+        <v>-45.352380952380912</v>
+      </c>
+      <c r="E25">
+        <v>156.14444444444399</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>169.9833333</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-52.233333330000001</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-42.191666666666627</v>
-      </c>
-      <c r="E26" s="1">
-        <v>155.28333333333291</v>
+      <c r="A26">
+        <v>171.5714285714281</v>
+      </c>
+      <c r="B26">
+        <v>-53.844444444444413</v>
+      </c>
+      <c r="D26">
+        <v>-46.961904761904734</v>
+      </c>
+      <c r="E26">
+        <v>162.4333333333328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>176.921875</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-54.254166669999996</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-43.491666666666632</v>
-      </c>
-      <c r="E27" s="1">
-        <v>161.13333333333293</v>
+      <c r="A27">
+        <v>178.36190476190444</v>
+      </c>
+      <c r="B27">
+        <v>-55.588888888888832</v>
+      </c>
+      <c r="D27">
+        <v>-48.542857142857073</v>
+      </c>
+      <c r="E27">
+        <v>168.59999999999931</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>183.66041670000001</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-55.708333330000002</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-44.608333333333306</v>
-      </c>
-      <c r="E28" s="1">
-        <v>167.13333333333313</v>
+      <c r="A28">
+        <v>185.28095238095176</v>
+      </c>
+      <c r="B28">
+        <v>-57.511111111111063</v>
+      </c>
+      <c r="D28">
+        <v>-49.942857142857093</v>
+      </c>
+      <c r="E28">
+        <v>174.76666666666623</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>190.6239583</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-57.145833330000002</v>
-      </c>
-      <c r="D29" s="1">
-        <v>-46.049999999999969</v>
-      </c>
-      <c r="E29" s="1">
-        <v>173.11666666666633</v>
+      <c r="A29">
+        <v>192.1857142857138</v>
+      </c>
+      <c r="B29">
+        <v>-59.4444444444444</v>
+      </c>
+      <c r="D29">
+        <v>-51.485714285714245</v>
+      </c>
+      <c r="E29">
+        <v>181.21111111111071</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>197.4291667</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-59.15</v>
-      </c>
-      <c r="D30" s="1">
-        <v>-46.883333333333304</v>
-      </c>
-      <c r="E30" s="1">
-        <v>178.63333333333301</v>
+      <c r="A30">
+        <v>199.12857142857081</v>
+      </c>
+      <c r="B30">
+        <v>-61.355555555555512</v>
+      </c>
+      <c r="D30">
+        <v>-52.557142857142807</v>
+      </c>
+      <c r="E30">
+        <v>187.38888888888829</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>204.13020829999999</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-60.854166669999998</v>
-      </c>
-      <c r="D31" s="1">
-        <v>-47.533333333333303</v>
-      </c>
-      <c r="E31" s="1">
-        <v>184.34999999999974</v>
+      <c r="A31">
+        <v>205.93809523809469</v>
+      </c>
+      <c r="B31">
+        <v>-63.166666666666629</v>
+      </c>
+      <c r="D31">
+        <v>-53.819047619047566</v>
+      </c>
+      <c r="E31">
+        <v>193.54444444444377</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>210.89583329999999</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-62.65</v>
-      </c>
-      <c r="D32" s="1">
-        <v>-48.12083333333333</v>
-      </c>
-      <c r="E32" s="1">
-        <v>189.88333333333301</v>
+      <c r="A32">
+        <v>212.65714285714222</v>
+      </c>
+      <c r="B32">
+        <v>-65.07777777777774</v>
+      </c>
+      <c r="D32">
+        <v>-54.852380952380884</v>
+      </c>
+      <c r="E32">
+        <v>199.1666666666662</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>217.359375</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-64.587500000000006</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-48.712499999999977</v>
-      </c>
-      <c r="E33" s="1">
-        <v>195.26666666666631</v>
+      <c r="A33">
+        <v>219.50476190476138</v>
+      </c>
+      <c r="B33">
+        <v>-66.988888888888837</v>
+      </c>
+      <c r="D33">
+        <v>-56.319047619047559</v>
+      </c>
+      <c r="E33">
+        <v>205.61111111111046</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>223.73958329999999</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-66.041666669999998</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-49.462499999999963</v>
-      </c>
-      <c r="E34" s="1">
-        <v>200.73333333333321</v>
+      <c r="A34">
+        <v>226.14285714285671</v>
+      </c>
+      <c r="B34">
+        <v>-68.833333333333272</v>
+      </c>
+      <c r="D34">
+        <v>-57.180952380952327</v>
+      </c>
+      <c r="E34">
+        <v>211.17777777777729</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>230.35</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-66.516666670000006</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-49.77916666666664</v>
-      </c>
-      <c r="E35" s="1">
-        <v>206.23333333333304</v>
+      <c r="A35">
+        <v>232.81428571428509</v>
+      </c>
+      <c r="B35">
+        <v>-70.69999999999996</v>
+      </c>
+      <c r="D35">
+        <v>-57.899999999999956</v>
+      </c>
+      <c r="E35">
+        <v>216.7111111111106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>236.4833333</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-67.566666670000004</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-50.22499999999998</v>
-      </c>
-      <c r="E36" s="1">
-        <v>211.88333333333321</v>
+      <c r="A36">
+        <v>239.24285714285656</v>
+      </c>
+      <c r="B36">
+        <v>-71.933333333333294</v>
+      </c>
+      <c r="D36">
+        <v>-58.814285714285667</v>
+      </c>
+      <c r="E36">
+        <v>222.72222222222189</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>242.4302083</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-67.704166670000006</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-50.5208333333333</v>
-      </c>
-      <c r="E37" s="1">
-        <v>217.14999999999972</v>
+      <c r="A37">
+        <v>245.7571428571423</v>
+      </c>
+      <c r="B37">
+        <v>-73.477777777777732</v>
+      </c>
+      <c r="D37">
+        <v>-58.733333333333277</v>
+      </c>
+      <c r="E37">
+        <v>227.95555555555521</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>248.02187499999999</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-68.620833329999996</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-50.637499999999967</v>
-      </c>
-      <c r="E38" s="1">
-        <v>222.36666666666628</v>
+      <c r="A38">
+        <v>251.77142857142795</v>
+      </c>
+      <c r="B38">
+        <v>-73.999999999999986</v>
+      </c>
+      <c r="D38">
+        <v>-59.428571428571388</v>
+      </c>
+      <c r="E38">
+        <v>233.7222222222218</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>253.546875</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-69.020833330000002</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-50.449999999999974</v>
-      </c>
-      <c r="E39" s="1">
-        <v>226.81666666666632</v>
+      <c r="A39">
+        <v>257.9476190476185</v>
+      </c>
+      <c r="B39">
+        <v>-74.999999999999972</v>
+      </c>
+      <c r="D39">
+        <v>-59.609523809523751</v>
+      </c>
+      <c r="E39">
+        <v>239.1333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>258.77916670000002</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-68.383333329999999</v>
-      </c>
-      <c r="D40" s="1">
-        <v>-49.791666666666629</v>
-      </c>
-      <c r="E40" s="1">
-        <v>231.64999999999964</v>
+      <c r="A40">
+        <v>263.96666666666619</v>
+      </c>
+      <c r="B40">
+        <v>-75.82222222222218</v>
+      </c>
+      <c r="D40">
+        <v>-59.519047619047583</v>
+      </c>
+      <c r="E40">
+        <v>244.04444444444388</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>263.64999999999998</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-67.900000000000006</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-48.941666666666642</v>
-      </c>
-      <c r="E41" s="1">
-        <v>236.34999999999954</v>
+      <c r="A41">
+        <v>269.50476190476127</v>
+      </c>
+      <c r="B41">
+        <v>-76.099999999999952</v>
+      </c>
+      <c r="D41">
+        <v>-59.242857142857098</v>
+      </c>
+      <c r="E41">
+        <v>248.93333333333285</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>268.10833330000003</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-67.733333329999994</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-47.799999999999983</v>
-      </c>
-      <c r="E42" s="1">
-        <v>240.28333333333302</v>
+      <c r="A42">
+        <v>274.20952380952349</v>
+      </c>
+      <c r="B42">
+        <v>-75.777777777777715</v>
+      </c>
+      <c r="D42">
+        <v>-58.147619047618988</v>
+      </c>
+      <c r="E42">
+        <v>253.41111111111067</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>271.99479170000001</v>
-      </c>
-      <c r="B43" s="1">
-        <v>-65.962500000000006</v>
-      </c>
-      <c r="D43" s="1">
-        <v>-45.95416666666663</v>
-      </c>
-      <c r="E43" s="1">
-        <v>243.89999999999972</v>
+      <c r="A43">
+        <v>278.45238095238022</v>
+      </c>
+      <c r="B43">
+        <v>-74.477777777777746</v>
+      </c>
+      <c r="D43">
+        <v>-57.3333333333333</v>
+      </c>
+      <c r="E43">
+        <v>257.6111111111108</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>274.94166669999998</v>
-      </c>
-      <c r="B44" s="1">
-        <v>-63.566666669999996</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-44.666666666666643</v>
-      </c>
-      <c r="E44" s="1">
-        <v>247.61666666666633</v>
+      <c r="A44">
+        <v>282.3190476190473</v>
+      </c>
+      <c r="B44">
+        <v>-73.211111111111066</v>
+      </c>
+      <c r="D44">
+        <v>-55.909523809523748</v>
+      </c>
+      <c r="E44">
+        <v>261.47777777777719</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>276.8822917</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-59.962499999999999</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-42.383333333333312</v>
-      </c>
-      <c r="E45" s="1">
-        <v>250.94999999999973</v>
+      <c r="A45">
+        <v>285.67619047619007</v>
+      </c>
+      <c r="B45">
+        <v>-71.388888888888829</v>
+      </c>
+      <c r="D45">
+        <v>-53.723809523809464</v>
+      </c>
+      <c r="E45">
+        <v>265.24444444444407</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>278.1489583</v>
-      </c>
-      <c r="B46" s="1">
-        <v>-54.679166670000001</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-40.65416666666664</v>
-      </c>
-      <c r="E46" s="1">
-        <v>254.98333333333312</v>
+      <c r="A46">
+        <v>286.71428571428532</v>
+      </c>
+      <c r="B46">
+        <v>-67.044444444444423</v>
+      </c>
+      <c r="D46">
+        <v>-51.542857142857102</v>
+      </c>
+      <c r="E46">
+        <v>268.62222222222175</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>278.5625</v>
-      </c>
-      <c r="B47" s="1">
-        <v>-50.183333330000004</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-38.195833333333319</v>
-      </c>
-      <c r="E47" s="1">
-        <v>258.31666666666632</v>
+      <c r="A47">
+        <v>286.5428571428568</v>
+      </c>
+      <c r="B47">
+        <v>-61.688888888888869</v>
+      </c>
+      <c r="D47">
+        <v>-49.171428571428521</v>
+      </c>
+      <c r="E47">
+        <v>271.64444444444388</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>278.2583333</v>
-      </c>
-      <c r="B48" s="1">
-        <v>-44.35</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-35.329166666666644</v>
-      </c>
-      <c r="E48" s="1">
-        <v>260.74999999999972</v>
+      <c r="A48">
+        <v>284.87142857142851</v>
+      </c>
+      <c r="B48">
+        <v>-54.86666666666666</v>
+      </c>
+      <c r="D48">
+        <v>-45.038095238095181</v>
+      </c>
+      <c r="E48">
+        <v>273.08888888888845</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>277.31354169999997</v>
-      </c>
-      <c r="B49" s="1">
-        <v>-38.154166670000002</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-31.820833333333304</v>
-      </c>
-      <c r="E49" s="1">
-        <v>262.683333333333</v>
+      <c r="A49">
+        <v>282.5</v>
+      </c>
+      <c r="B49">
+        <v>-47.5</v>
+      </c>
+      <c r="D49">
+        <v>-40.523809523809476</v>
+      </c>
+      <c r="E49">
+        <v>273.77777777777737</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>276.03750000000002</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-31.4</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-27.483333333333313</v>
-      </c>
-      <c r="E50" s="1">
-        <v>264.08333333333314</v>
+      <c r="A50">
+        <v>280</v>
+      </c>
+      <c r="B50">
+        <v>-40</v>
+      </c>
+      <c r="D50">
+        <v>-34.780952380952321</v>
+      </c>
+      <c r="E50">
+        <v>273.45555555555512</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>274.66770830000002</v>
-      </c>
-      <c r="B51" s="1">
-        <v>-24.970833330000001</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-23.054166666666639</v>
-      </c>
-      <c r="E51" s="1">
-        <v>265.01666666666631</v>
+      <c r="A51">
+        <v>277.5</v>
+      </c>
+      <c r="B51">
+        <v>-32.5</v>
+      </c>
+      <c r="D51">
+        <v>-28.828571428571394</v>
+      </c>
+      <c r="E51">
+        <v>272.76666666666631</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>272.96875</v>
-      </c>
-      <c r="B52" s="1">
-        <v>-17.324999999999999</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-17.97083333333331</v>
-      </c>
-      <c r="E52" s="1">
-        <v>265.49999999999966</v>
+      <c r="A52">
+        <v>275</v>
+      </c>
+      <c r="B52">
+        <v>-25</v>
+      </c>
+      <c r="D52">
+        <v>-22.599999999999959</v>
+      </c>
+      <c r="E52">
+        <v>271.96666666666653</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>271.31875000000002</v>
-      </c>
-      <c r="B53" s="1">
-        <v>-10.241666670000001</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-12.37083333333331</v>
-      </c>
-      <c r="E53" s="1">
-        <v>265.31666666666644</v>
+      <c r="A53">
+        <v>272.5</v>
+      </c>
+      <c r="B53">
+        <v>-17.5</v>
+      </c>
+      <c r="D53">
+        <v>-16.295238095238069</v>
+      </c>
+      <c r="E53">
+        <v>270.68888888888847</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>269.38749999999999</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-2.983333333</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-6.3833333333333293</v>
-      </c>
-      <c r="E54" s="1">
-        <v>264.81666666666649</v>
+      <c r="A54">
+        <v>270</v>
+      </c>
+      <c r="B54">
+        <v>-10</v>
+      </c>
+      <c r="D54">
+        <v>-9.3904761904761891</v>
+      </c>
+      <c r="E54">
+        <v>269.05555555555537</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>267.23958329999999</v>
-      </c>
-      <c r="B55" s="1">
-        <v>4.2249999999999996</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.20833333333333365</v>
-      </c>
-      <c r="E55" s="1">
-        <v>263.5833333333332</v>
+      <c r="A55">
+        <v>267.5</v>
+      </c>
+      <c r="B55">
+        <v>-2.5</v>
+      </c>
+      <c r="D55">
+        <v>-2.0523809523809509</v>
+      </c>
+      <c r="E55">
+        <v>266.87777777777768</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>265.10833330000003</v>
-      </c>
-      <c r="B56" s="1">
-        <v>13.25</v>
-      </c>
-      <c r="D56" s="1">
-        <v>6.8874999999999975</v>
-      </c>
-      <c r="E56" s="1">
-        <v>262.0833333333332</v>
+      <c r="A56">
+        <v>265</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5.2761904761904743</v>
+      </c>
+      <c r="E56">
+        <v>264.60000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>262.77708330000002</v>
-      </c>
-      <c r="B57" s="1">
-        <v>19.791666670000001</v>
-      </c>
-      <c r="D57" s="1">
-        <v>13.791666666666629</v>
-      </c>
-      <c r="E57" s="1">
-        <v>260.46666666666653</v>
+      <c r="A57">
+        <v>262.5</v>
+      </c>
+      <c r="B57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>12.67619047619047</v>
+      </c>
+      <c r="E57">
+        <v>262.21111111111111</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>260.48541669999997</v>
-      </c>
-      <c r="B58" s="1">
-        <v>27.791666670000001</v>
-      </c>
-      <c r="D58" s="1">
-        <v>20.816666666666642</v>
-      </c>
-      <c r="E58" s="1">
-        <v>258.7</v>
+      <c r="A58">
+        <v>260</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>258.01041670000001</v>
-      </c>
-      <c r="B59" s="1">
-        <v>35.208333330000002</v>
-      </c>
-      <c r="D59" s="1">
-        <v>27.72083333333331</v>
-      </c>
-      <c r="E59" s="1">
-        <v>257.1333333333331</v>
+      <c r="A59">
+        <v>257.5</v>
+      </c>
+      <c r="B59">
+        <v>27.5</v>
+      </c>
+      <c r="D59">
+        <v>27.5</v>
+      </c>
+      <c r="E59">
+        <v>257.5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>255.56770829999999</v>
-      </c>
-      <c r="B60" s="1">
-        <v>42.895833330000002</v>
-      </c>
-      <c r="D60" s="1">
-        <v>35.05833333333333</v>
-      </c>
-      <c r="E60" s="1">
-        <v>254.93333333333331</v>
+      <c r="A60">
+        <v>255</v>
+      </c>
+      <c r="B60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>253.14583329999999</v>
-      </c>
-      <c r="B61" s="1">
-        <v>50.583333330000002</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="A61">
+        <v>252.5</v>
+      </c>
+      <c r="B61">
         <v>42.5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="D61">
+        <v>42.5</v>
+      </c>
+      <c r="E61">
         <v>252.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>250.65104170000001</v>
-      </c>
-      <c r="B62" s="1">
-        <v>57.8125</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="A62">
+        <v>250</v>
+      </c>
+      <c r="B62">
         <v>50</v>
       </c>
-      <c r="E62" s="1">
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62">
         <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>248.13541670000001</v>
-      </c>
-      <c r="B63" s="1">
-        <v>65.125</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="A63">
+        <v>247.5</v>
+      </c>
+      <c r="B63">
         <v>57.5</v>
       </c>
-      <c r="E63" s="1">
+      <c r="D63">
+        <v>57.5</v>
+      </c>
+      <c r="E63">
         <v>247.5</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>245.58854170000001</v>
-      </c>
-      <c r="B64" s="1">
-        <v>72.0625</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="A64">
+        <v>245</v>
+      </c>
+      <c r="B64">
         <v>65</v>
       </c>
-      <c r="E64" s="1">
+      <c r="D64">
+        <v>65</v>
+      </c>
+      <c r="E64">
         <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>243.10416670000001</v>
-      </c>
-      <c r="B65" s="1">
-        <v>79.75</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="A65">
+        <v>242.5</v>
+      </c>
+      <c r="B65">
         <v>72.5</v>
       </c>
-      <c r="E65" s="1">
+      <c r="D65">
+        <v>72.5</v>
+      </c>
+      <c r="E65">
         <v>242.5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>240.63541670000001</v>
-      </c>
-      <c r="B66" s="1">
-        <v>87.625</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="A66">
+        <v>240</v>
+      </c>
+      <c r="B66">
         <v>80</v>
       </c>
-      <c r="E66" s="1">
+      <c r="D66">
+        <v>80</v>
+      </c>
+      <c r="E66">
         <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>238.046875</v>
-      </c>
-      <c r="B67" s="1">
-        <v>94.0625</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="A67">
+        <v>237.5</v>
+      </c>
+      <c r="B67">
         <v>87.5</v>
       </c>
-      <c r="E67" s="1">
+      <c r="D67">
+        <v>87.5</v>
+      </c>
+      <c r="E67">
         <v>237.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>235.50520829999999</v>
-      </c>
-      <c r="B68" s="1">
-        <v>101.0625</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="A68">
+        <v>235</v>
+      </c>
+      <c r="B68">
         <v>95</v>
       </c>
-      <c r="E68" s="1">
+      <c r="D68">
+        <v>95</v>
+      </c>
+      <c r="E68">
         <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>232.92708329999999</v>
-      </c>
-      <c r="B69" s="1">
-        <v>107.625</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="A69">
+        <v>232.5</v>
+      </c>
+      <c r="B69">
         <v>102.5</v>
       </c>
-      <c r="E69" s="1">
+      <c r="D69">
+        <v>102.5</v>
+      </c>
+      <c r="E69">
         <v>232.5</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>230.359375</v>
-      </c>
-      <c r="B70" s="1">
-        <v>114.3125</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="A70">
+        <v>230</v>
+      </c>
+      <c r="B70">
         <v>110</v>
       </c>
-      <c r="E70" s="1">
+      <c r="D70">
+        <v>110</v>
+      </c>
+      <c r="E70">
         <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>227.85416670000001</v>
-      </c>
-      <c r="B71" s="1">
-        <v>121.75</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="A71">
+        <v>227.5</v>
+      </c>
+      <c r="B71">
         <v>117.5</v>
       </c>
-      <c r="E71" s="1">
+      <c r="D71">
+        <v>117.5</v>
+      </c>
+      <c r="E71">
         <v>227.5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>225.29166670000001</v>
-      </c>
-      <c r="B72" s="1">
-        <v>128.5</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="A72">
+        <v>225</v>
+      </c>
+      <c r="B72">
         <v>125</v>
       </c>
-      <c r="E72" s="1">
+      <c r="D72">
+        <v>125</v>
+      </c>
+      <c r="E72">
         <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>222.64583329999999</v>
-      </c>
-      <c r="B73" s="1">
-        <v>134.25</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="A73">
+        <v>222.5</v>
+      </c>
+      <c r="B73">
         <v>132.5</v>
       </c>
-      <c r="E73" s="1">
+      <c r="D73">
+        <v>132.5</v>
+      </c>
+      <c r="E73">
         <v>222.5</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>220.13020829999999</v>
-      </c>
-      <c r="B74" s="1">
-        <v>141.5625</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="A74">
+        <v>220</v>
+      </c>
+      <c r="B74">
         <v>140</v>
       </c>
-      <c r="E74" s="1">
+      <c r="D74">
+        <v>140</v>
+      </c>
+      <c r="E74">
         <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>217.59895829999999</v>
-      </c>
-      <c r="B75" s="1">
-        <v>148.6875</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="A75">
+        <v>217.5</v>
+      </c>
+      <c r="B75">
         <v>147.5</v>
       </c>
-      <c r="E75" s="1">
+      <c r="D75">
+        <v>147.5</v>
+      </c>
+      <c r="E75">
         <v>217.5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>215.13020829999999</v>
-      </c>
-      <c r="B76" s="1">
-        <v>156.5625</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="A76">
+        <v>215</v>
+      </c>
+      <c r="B76">
         <v>155</v>
       </c>
-      <c r="E76" s="1">
+      <c r="D76">
+        <v>155</v>
+      </c>
+      <c r="E76">
         <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>212.5625</v>
-      </c>
-      <c r="B77" s="1">
-        <v>163.25</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="A77">
+        <v>212.5</v>
+      </c>
+      <c r="B77">
         <v>162.5</v>
       </c>
-      <c r="E77" s="1">
+      <c r="D77">
+        <v>162.5</v>
+      </c>
+      <c r="E77">
         <v>212.5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>210.05729170000001</v>
-      </c>
-      <c r="B78" s="1">
-        <v>170.6875</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="A78">
+        <v>210</v>
+      </c>
+      <c r="B78">
         <v>170</v>
       </c>
-      <c r="E78" s="1">
+      <c r="D78">
+        <v>170</v>
+      </c>
+      <c r="E78">
         <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>207.60416670000001</v>
-      </c>
-      <c r="B79" s="1">
-        <v>178.75</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="A79">
+        <v>207.5</v>
+      </c>
+      <c r="B79">
         <v>177.5</v>
       </c>
-      <c r="E79" s="1">
+      <c r="D79">
+        <v>177.5</v>
+      </c>
+      <c r="E79">
         <v>207.5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>205.07291670000001</v>
-      </c>
-      <c r="B80" s="1">
-        <v>185.875</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="A80">
+        <v>205</v>
+      </c>
+      <c r="B80">
         <v>185</v>
       </c>
-      <c r="E80" s="1">
+      <c r="D80">
+        <v>185</v>
+      </c>
+      <c r="E80">
         <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>202.578125</v>
-      </c>
-      <c r="B81" s="1">
-        <v>193.4375</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="A81">
+        <v>202.5</v>
+      </c>
+      <c r="B81">
         <v>192.5</v>
       </c>
-      <c r="E81" s="1">
+      <c r="D81">
+        <v>192.5</v>
+      </c>
+      <c r="E81">
         <v>202.5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>200</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>200</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>200</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="1">
+        <v>200</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Experiments/Part4-DoNothing/DocPop-leech.xlsx
+++ b/Experiments/Part4-DoNothing/DocPop-leech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1520" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="26600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Setting1-Result100.csv" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Setting 2</t>
   </si>
   <si>
-    <t>Taste1</t>
-  </si>
-  <si>
     <t>Taste 0-leech</t>
-  </si>
-  <si>
-    <t>Setting 1</t>
   </si>
   <si>
     <t>Taste 1-leech</t>
   </si>
   <si>
     <t>Taste 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taste1 </t>
   </si>
 </sst>
 </file>
@@ -140,7 +137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 1 Taste1</c:v>
+                  <c:v>Taste1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -150,248 +147,251 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$A$3:$A$83</c:f>
+              <c:f>'Setting1-Result100.csv'!$A$2:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7.29523809523809</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>14.61904761904758</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>21.86666666666661</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>29.15238095238091</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>36.41904761904758</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43.61428571428566</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>50.70476190476186</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>57.9571428571428</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65.15714285714282</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>72.22857142857137</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>79.29999999999995</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>86.47619047619045</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>93.6333333333333</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>100.8619047619044</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>107.9714285714282</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>115.1523809523805</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>122.1809523809519</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>129.2714285714282</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>136.4333333333329</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>143.57619047619</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>150.6428571428568</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>157.5714285714281</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>164.5619047619043</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>171.5714285714281</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>178.3619047619044</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>185.2809523809518</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>192.1857142857138</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>199.1285714285708</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>205.9380952380947</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>212.6571428571422</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>219.5047619047614</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>226.1428571428567</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>232.8142857142851</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>239.2428571428566</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>245.7571428571423</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>251.7714285714279</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>257.9476190476185</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>263.9666666666662</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>269.5047619047612</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>274.2095238095235</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>278.4523809523802</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>282.3190476190472</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>285.6761904761901</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>286.7142857142853</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>286.5428571428568</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>284.8714285714285</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>282.5</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>280.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>277.5</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>275.0</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>272.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>270.0</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>267.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>265.0</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>262.5</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>260.0</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>257.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>255.0</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>252.5</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>250.0</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>247.5</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>245.0</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>242.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>240.0</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>237.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>235.0</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>232.5</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>230.0</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>227.5</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>225.0</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>222.5</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>220.0</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>217.5</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>215.0</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>212.5</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>210.0</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>207.5</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>205.0</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>202.5</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -408,7 +408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting 1 Taste 0-leech</c:v>
+                  <c:v>Taste 0-leech</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -677,11 +677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088256776"/>
-        <c:axId val="2140867000"/>
+        <c:axId val="-2100583496"/>
+        <c:axId val="-2100579864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088256776"/>
+        <c:axId val="-2100583496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140867000"/>
+        <c:crossAx val="-2100579864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -717,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140867000"/>
+        <c:axId val="-2100579864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088256776"/>
+        <c:crossAx val="-2100583496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,11 +794,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$D$2:$D$3</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1-leech -1.942857143</c:v>
+                  <c:v>Taste 1-leech</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,248 +808,251 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$D$4:$D$84</c:f>
+              <c:f>'Setting1-Result100.csv'!$D$3:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
+                  <c:v>-1.942857142857137</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-4.052380952380946</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-6.142857142857136</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-8.261904761904754</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-10.27619047619045</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-12.32380952380948</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-14.27619047619044</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-16.49523809523805</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-18.61428571428566</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-20.67142857142852</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-22.72857142857139</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-24.88571428571423</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-26.83809523809517</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-28.87142857142853</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-30.69999999999996</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-32.76190476190472</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-34.59523809523806</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-36.347619047619</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>-38.31428571428567</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-40.17619047619042</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>-42.19047619047614</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>-43.71428571428566</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>-45.35238095238091</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>-46.96190476190473</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>-48.54285714285707</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>-49.9428571428571</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>-51.48571428571424</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>-52.55714285714281</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>-53.81904761904757</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>-54.85238095238088</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>-56.31904761904756</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>-57.18095238095232</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>-57.89999999999995</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>-58.81428571428567</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>-58.73333333333327</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>-59.42857142857138</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>-59.60952380952375</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>-59.51904761904758</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>-59.2428571428571</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>-58.14761904761899</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>-57.3333333333333</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>-55.90952380952374</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>-53.72380952380946</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>-51.5428571428571</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>-49.17142857142852</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>-45.03809523809518</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>-40.52380952380948</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>-34.78095238095232</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>-28.82857142857139</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>-22.59999999999996</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>-16.29523809523807</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>-9.39047619047619</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>-2.052380952380951</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>5.276190476190474</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>12.67619047619047</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>35.0</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>42.5</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>65.0</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>72.5</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>95.0</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>102.5</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>110.0</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>117.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>125.0</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>132.5</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>140.0</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>147.5</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>155.0</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>162.5</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>170.0</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>177.5</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>185.0</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>192.5</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1062,11 +1065,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Setting1-Result100.csv'!$E$2:$E$3</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0 6.988888889</c:v>
+                  <c:v>Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1076,248 +1079,251 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Setting1-Result100.csv'!$E$4:$E$84</c:f>
+              <c:f>'Setting1-Result100.csv'!$E$3:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
+                  <c:v>6.988888888888883</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13.95555555555552</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>20.9555555555555</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>27.93333333333328</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>34.87777777777772</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>41.76666666666662</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>48.55555555555551</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>55.45555555555551</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>62.37777777777774</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>69.22222222222217</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>76.31111111111108</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>83.12222222222218</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>89.65555555555549</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>96.18888888888884</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>102.6888888888883</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>109.4555555555552</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>115.9111111111107</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>122.5666666666661</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>129.4111111111107</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>136.144444444444</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>143.0555555555551</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>149.5999999999997</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>156.144444444444</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>162.4333333333328</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>168.5999999999993</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>174.7666666666662</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>181.2111111111107</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>187.3888888888883</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>193.5444444444438</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>199.1666666666662</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>205.6111111111105</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>211.1777777777773</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>216.7111111111106</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>222.7222222222219</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>227.9555555555552</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>233.7222222222218</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>239.1333333333329</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>244.0444444444439</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>248.9333333333329</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>253.4111111111107</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>257.6111111111108</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>261.4777777777772</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>265.2444444444441</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>268.6222222222218</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>271.6444444444438</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>273.0888888888884</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>273.7777777777774</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>273.4555555555551</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>272.7666666666663</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>271.9666666666665</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>270.6888888888885</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>269.0555555555554</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>266.8777777777777</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>264.6</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>262.2111111111111</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>260.0</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>257.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>255.0</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>252.5</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>250.0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>247.5</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>245.0</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>242.5</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>240.0</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>237.5</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>235.0</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>232.5</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>230.0</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>227.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>225.0</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>222.5</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>220.0</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>217.5</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>215.0</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>212.5</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>210.0</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>207.5</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>205.0</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>202.5</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1335,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132065176"/>
-        <c:axId val="-2111769400"/>
+        <c:axId val="-2100362392"/>
+        <c:axId val="-2100356920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132065176"/>
+        <c:axId val="-2100362392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111769400"/>
+        <c:crossAx val="-2100356920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1375,7 +1381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111769400"/>
+        <c:axId val="-2100356920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132065176"/>
+        <c:crossAx val="-2100362392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,9 +1444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,9 +1474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1817,31 +1823,28 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
